--- a/selenium/data/input data.xlsx
+++ b/selenium/data/input data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F44DA2B7-11F9-4CA1-B280-60502EBE8582}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AC15DF09-FF51-4144-BBCA-5EAD1E89486C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{123C9258-876A-4222-B7A3-63924D33FC6F}"/>
   </bookViews>
@@ -14,7 +14,7 @@
     <sheet name="Invalid" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P24"/>
+  <oleSize ref="A1:S20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
